--- a/03_K_Means_Clustering/Output/CreditCard_00_Results_Summary.xlsx
+++ b/03_K_Means_Clustering/Output/CreditCard_00_Results_Summary.xlsx
@@ -12,13 +12,14 @@
     <sheet name="PCA_VAR" sheetId="3" r:id="rId3"/>
     <sheet name="PCA_Components" sheetId="4" r:id="rId4"/>
     <sheet name="PCA_Top_Features" sheetId="5" r:id="rId5"/>
+    <sheet name="DTR-Features" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
   <si>
     <t>count</t>
   </si>
@@ -168,6 +169,18 @@
   </si>
   <si>
     <t>weak</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning</t>
   </si>
 </sst>
 </file>
@@ -2497,4 +2510,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/03_K_Means_Clustering/Output/CreditCard_00_Results_Summary.xlsx
+++ b/03_K_Means_Clustering/Output/CreditCard_00_Results_Summary.xlsx
@@ -1278,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.273</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.203</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08799999999999999</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.075</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.063</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.058</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1342,46 +1342,6 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
         <v>0.018</v>
       </c>
     </row>
@@ -1392,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1456,55 +1416,55 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.101</v>
+        <v>-0.015</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
+        <v>0.102</v>
       </c>
       <c r="D2">
-        <v>0.412</v>
+        <v>0.033</v>
       </c>
       <c r="E2">
-        <v>0.346</v>
+        <v>0.02</v>
       </c>
       <c r="F2">
-        <v>0.337</v>
+        <v>0.035</v>
       </c>
       <c r="G2">
-        <v>-0.023</v>
+        <v>-0.017</v>
       </c>
       <c r="H2">
-        <v>0.321</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="I2">
-        <v>0.295</v>
+        <v>0.243</v>
       </c>
       <c r="J2">
-        <v>0.275</v>
+        <v>0.637</v>
       </c>
       <c r="K2">
-        <v>-0.089</v>
+        <v>-0.074</v>
       </c>
       <c r="L2">
-        <v>-0.049</v>
+        <v>-0.02</v>
       </c>
       <c r="M2">
-        <v>0.391</v>
+        <v>0.075</v>
       </c>
       <c r="N2">
-        <v>0.212</v>
+        <v>0.03</v>
       </c>
       <c r="O2">
-        <v>0.266</v>
+        <v>0.014</v>
       </c>
       <c r="P2">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.132</v>
+        <v>0.194</v>
       </c>
       <c r="R2">
-        <v>0.081</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1512,55 +1472,55 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.404</v>
+        <v>0.099</v>
       </c>
       <c r="C3">
+        <v>0.266</v>
+      </c>
+      <c r="D3">
+        <v>0.048</v>
+      </c>
+      <c r="E3">
+        <v>0.058</v>
+      </c>
+      <c r="F3">
+        <v>-0.002</v>
+      </c>
+      <c r="G3">
+        <v>0.013</v>
+      </c>
+      <c r="H3">
+        <v>0.081</v>
+      </c>
+      <c r="I3">
+        <v>0.823</v>
+      </c>
+      <c r="J3">
+        <v>-0.423</v>
+      </c>
+      <c r="K3">
+        <v>0.056</v>
+      </c>
+      <c r="L3">
+        <v>0.019</v>
+      </c>
+      <c r="M3">
+        <v>0.064</v>
+      </c>
+      <c r="N3">
         <v>0.131</v>
       </c>
-      <c r="D3">
-        <v>0.041</v>
-      </c>
-      <c r="E3">
-        <v>0.063</v>
-      </c>
-      <c r="F3">
-        <v>-0.019</v>
-      </c>
-      <c r="G3">
-        <v>0.439</v>
-      </c>
-      <c r="H3">
-        <v>-0.191</v>
-      </c>
-      <c r="I3">
-        <v>-0.018</v>
-      </c>
-      <c r="J3">
-        <v>-0.179</v>
-      </c>
-      <c r="K3">
-        <v>0.434</v>
-      </c>
-      <c r="L3">
-        <v>0.42</v>
-      </c>
-      <c r="M3">
-        <v>-0.019</v>
-      </c>
-      <c r="N3">
-        <v>0.239</v>
-      </c>
       <c r="O3">
-        <v>0.257</v>
+        <v>0.043</v>
       </c>
       <c r="P3">
-        <v>0.167</v>
+        <v>0.003</v>
       </c>
       <c r="Q3">
-        <v>-0.19</v>
+        <v>-0.113</v>
       </c>
       <c r="R3">
-        <v>-0.004</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1568,55 +1528,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.16</v>
+        <v>-0.161</v>
       </c>
       <c r="C4">
-        <v>-0.421</v>
+        <v>-0.374</v>
       </c>
       <c r="D4">
-        <v>0.258</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <v>0.392</v>
+        <v>0.015</v>
       </c>
       <c r="F4">
-        <v>-0.11</v>
+        <v>-0.005</v>
       </c>
       <c r="G4">
         <v>-0.027</v>
       </c>
       <c r="H4">
-        <v>-0.375</v>
+        <v>-0.047</v>
       </c>
       <c r="I4">
-        <v>0.115</v>
+        <v>0.169</v>
       </c>
       <c r="J4">
-        <v>-0.473</v>
+        <v>-0.226</v>
       </c>
       <c r="K4">
+        <v>-0.124</v>
+      </c>
+      <c r="L4">
+        <v>-0.04</v>
+      </c>
+      <c r="M4">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="N4">
+        <v>-0.005</v>
+      </c>
+      <c r="O4">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="P4">
+        <v>-0.022</v>
+      </c>
+      <c r="Q4">
+        <v>0.85</v>
+      </c>
+      <c r="R4">
         <v>-0.109</v>
-      </c>
-      <c r="L4">
-        <v>-0.116</v>
-      </c>
-      <c r="M4">
-        <v>-0.077</v>
-      </c>
-      <c r="N4">
-        <v>0.1</v>
-      </c>
-      <c r="O4">
-        <v>0.276</v>
-      </c>
-      <c r="P4">
-        <v>-0.222</v>
-      </c>
-      <c r="Q4">
-        <v>0.125</v>
-      </c>
-      <c r="R4">
-        <v>-0.064</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1624,55 +1584,55 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.283</v>
+        <v>-0.054</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>-0.421</v>
       </c>
       <c r="D5">
-        <v>0.039</v>
+        <v>-0.001</v>
       </c>
       <c r="E5">
-        <v>0.078</v>
+        <v>0.005</v>
       </c>
       <c r="F5">
-        <v>-0.051</v>
+        <v>-0.011</v>
       </c>
       <c r="G5">
-        <v>-0.255</v>
+        <v>-0.005</v>
       </c>
       <c r="H5">
-        <v>-0.189</v>
+        <v>0.147</v>
       </c>
       <c r="I5">
-        <v>0.027</v>
+        <v>0.192</v>
       </c>
       <c r="J5">
-        <v>-0.215</v>
+        <v>-0.014</v>
       </c>
       <c r="K5">
-        <v>-0.264</v>
+        <v>0.005</v>
       </c>
       <c r="L5">
-        <v>-0.327</v>
+        <v>-0.01</v>
       </c>
       <c r="M5">
-        <v>-0.018</v>
+        <v>0.002</v>
       </c>
       <c r="N5">
-        <v>0.132</v>
+        <v>-0.067</v>
       </c>
       <c r="O5">
-        <v>-0.115</v>
+        <v>-0.027</v>
       </c>
       <c r="P5">
-        <v>0.403</v>
+        <v>-0.008</v>
       </c>
       <c r="Q5">
-        <v>-0.424</v>
+        <v>-0.332</v>
       </c>
       <c r="R5">
-        <v>0.435</v>
+        <v>-0.803</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1680,55 +1640,55 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.048</v>
+        <v>-0.097</v>
       </c>
       <c r="C6">
-        <v>-0.485</v>
+        <v>-0.707</v>
       </c>
       <c r="D6">
-        <v>0.031</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E6">
-        <v>-0.156</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
-        <v>0.36</v>
+        <v>0.002</v>
       </c>
       <c r="G6">
-        <v>0.097</v>
+        <v>-0.049</v>
       </c>
       <c r="H6">
-        <v>-0.092</v>
+        <v>0.057</v>
       </c>
       <c r="I6">
-        <v>-0.532</v>
+        <v>0.146</v>
       </c>
       <c r="J6">
-        <v>0.18</v>
+        <v>0.024</v>
       </c>
       <c r="K6">
-        <v>-0.137</v>
+        <v>-0.232</v>
       </c>
       <c r="L6">
-        <v>-0.078</v>
+        <v>-0.068</v>
       </c>
       <c r="M6">
-        <v>-0.03</v>
+        <v>0.023</v>
       </c>
       <c r="N6">
-        <v>0.073</v>
+        <v>0.006</v>
       </c>
       <c r="O6">
-        <v>0.194</v>
+        <v>-0.005</v>
       </c>
       <c r="P6">
-        <v>0.431</v>
+        <v>-0.005</v>
       </c>
       <c r="Q6">
-        <v>0.136</v>
+        <v>-0.317</v>
       </c>
       <c r="R6">
-        <v>-0.039</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1736,55 +1696,55 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.447</v>
+      </c>
+      <c r="C7">
+        <v>-0.283</v>
+      </c>
+      <c r="D7">
+        <v>0.075</v>
+      </c>
+      <c r="E7">
+        <v>0.054</v>
+      </c>
+      <c r="F7">
+        <v>0.065</v>
+      </c>
+      <c r="G7">
+        <v>0.171</v>
+      </c>
+      <c r="H7">
+        <v>-0.127</v>
+      </c>
+      <c r="I7">
+        <v>0.002</v>
+      </c>
+      <c r="J7">
+        <v>0.181</v>
+      </c>
+      <c r="K7">
+        <v>0.484</v>
+      </c>
+      <c r="L7">
+        <v>0.192</v>
+      </c>
+      <c r="M7">
+        <v>0.096</v>
+      </c>
+      <c r="N7">
+        <v>0.551</v>
+      </c>
+      <c r="O7">
+        <v>0.19</v>
+      </c>
+      <c r="P7">
         <v>0.04</v>
       </c>
-      <c r="C7">
-        <v>0.035</v>
-      </c>
-      <c r="D7">
-        <v>0.176</v>
-      </c>
-      <c r="E7">
-        <v>0.185</v>
-      </c>
-      <c r="F7">
-        <v>0.078</v>
-      </c>
-      <c r="G7">
-        <v>-0.147</v>
-      </c>
-      <c r="H7">
-        <v>-0.037</v>
-      </c>
-      <c r="I7">
-        <v>0.025</v>
-      </c>
-      <c r="J7">
-        <v>-0.052</v>
-      </c>
-      <c r="K7">
-        <v>0.066</v>
-      </c>
-      <c r="L7">
-        <v>-0.058</v>
-      </c>
-      <c r="M7">
-        <v>0.104</v>
-      </c>
-      <c r="N7">
-        <v>-0.321</v>
-      </c>
-      <c r="O7">
-        <v>-0.127</v>
-      </c>
-      <c r="P7">
-        <v>0.277</v>
-      </c>
       <c r="Q7">
-        <v>-0.357</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="R7">
-        <v>-0.747</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1792,335 +1752,55 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.252</v>
+        <v>0.191</v>
       </c>
       <c r="C8">
-        <v>0.105</v>
+        <v>0.12</v>
       </c>
       <c r="D8">
-        <v>0.203</v>
+        <v>0.102</v>
       </c>
       <c r="E8">
-        <v>0.122</v>
+        <v>0.079</v>
       </c>
       <c r="F8">
-        <v>0.257</v>
+        <v>0.079</v>
       </c>
       <c r="G8">
-        <v>-0.05</v>
+        <v>-0.091</v>
       </c>
       <c r="H8">
-        <v>-0.156</v>
+        <v>-0.168</v>
       </c>
       <c r="I8">
-        <v>-0.291</v>
+        <v>-0.047</v>
       </c>
       <c r="J8">
-        <v>0.036</v>
+        <v>0.061</v>
       </c>
       <c r="K8">
-        <v>0.141</v>
+        <v>-0.706</v>
       </c>
       <c r="L8">
-        <v>0.194</v>
+        <v>-0.266</v>
       </c>
       <c r="M8">
-        <v>0.107</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="N8">
-        <v>-0.5590000000000001</v>
+        <v>0.528</v>
       </c>
       <c r="O8">
-        <v>0.16</v>
+        <v>0.051</v>
       </c>
       <c r="P8">
-        <v>-0.195</v>
+        <v>0.028</v>
       </c>
       <c r="Q8">
-        <v>-0.297</v>
+        <v>-0.031</v>
       </c>
       <c r="R8">
-        <v>0.397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-0.17</v>
-      </c>
-      <c r="C9">
-        <v>0.259</v>
-      </c>
-      <c r="D9">
-        <v>0.02</v>
-      </c>
-      <c r="E9">
-        <v>0.126</v>
-      </c>
-      <c r="F9">
-        <v>-0.184</v>
-      </c>
-      <c r="G9">
-        <v>-0.021</v>
-      </c>
-      <c r="H9">
-        <v>-0.034</v>
-      </c>
-      <c r="I9">
-        <v>0.104</v>
-      </c>
-      <c r="J9">
-        <v>-0.156</v>
-      </c>
-      <c r="K9">
-        <v>0.051</v>
-      </c>
-      <c r="L9">
-        <v>0.114</v>
-      </c>
-      <c r="M9">
-        <v>-0.092</v>
-      </c>
-      <c r="N9">
-        <v>-0.347</v>
-      </c>
-      <c r="O9">
-        <v>0.077</v>
-      </c>
-      <c r="P9">
-        <v>0.585</v>
-      </c>
-      <c r="Q9">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R9">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.13</v>
-      </c>
-      <c r="C10">
-        <v>0.621</v>
-      </c>
-      <c r="D10">
-        <v>0.105</v>
-      </c>
-      <c r="E10">
-        <v>0.018</v>
-      </c>
-      <c r="F10">
-        <v>0.215</v>
-      </c>
-      <c r="G10">
-        <v>-0.051</v>
-      </c>
-      <c r="H10">
-        <v>-0.222</v>
-      </c>
-      <c r="I10">
-        <v>-0.4</v>
-      </c>
-      <c r="J10">
-        <v>-0.075</v>
-      </c>
-      <c r="K10">
-        <v>-0.091</v>
-      </c>
-      <c r="L10">
-        <v>-0.257</v>
-      </c>
-      <c r="M10">
-        <v>-0.203</v>
-      </c>
-      <c r="N10">
-        <v>0.144</v>
-      </c>
-      <c r="O10">
-        <v>0.094</v>
-      </c>
-      <c r="P10">
-        <v>-0.253</v>
-      </c>
-      <c r="Q10">
-        <v>0.261</v>
-      </c>
-      <c r="R10">
-        <v>-0.211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.031</v>
-      </c>
-      <c r="C11">
-        <v>-0.081</v>
-      </c>
-      <c r="D11">
-        <v>0.051</v>
-      </c>
-      <c r="E11">
-        <v>-0.176</v>
-      </c>
-      <c r="F11">
-        <v>0.444</v>
-      </c>
-      <c r="G11">
-        <v>-0.359</v>
-      </c>
-      <c r="H11">
-        <v>-0.251</v>
-      </c>
-      <c r="I11">
-        <v>0.11</v>
-      </c>
-      <c r="J11">
-        <v>-0.252</v>
-      </c>
-      <c r="K11">
-        <v>0.286</v>
-      </c>
-      <c r="L11">
-        <v>0.219</v>
-      </c>
-      <c r="M11">
-        <v>0.249</v>
-      </c>
-      <c r="N11">
-        <v>0.159</v>
-      </c>
-      <c r="O11">
-        <v>-0.466</v>
-      </c>
-      <c r="P11">
-        <v>-0.006</v>
-      </c>
-      <c r="Q11">
-        <v>0.24</v>
-      </c>
-      <c r="R11">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.147</v>
-      </c>
-      <c r="C12">
-        <v>-0.119</v>
-      </c>
-      <c r="D12">
-        <v>0.201</v>
-      </c>
-      <c r="E12">
-        <v>0.448</v>
-      </c>
-      <c r="F12">
-        <v>-0.348</v>
-      </c>
-      <c r="G12">
-        <v>-0.355</v>
-      </c>
-      <c r="H12">
-        <v>0.118</v>
-      </c>
-      <c r="I12">
-        <v>-0.375</v>
-      </c>
-      <c r="J12">
-        <v>0.287</v>
-      </c>
-      <c r="K12">
-        <v>0.217</v>
-      </c>
-      <c r="L12">
-        <v>0.205</v>
-      </c>
-      <c r="M12">
-        <v>-0.211</v>
-      </c>
-      <c r="N12">
-        <v>0.16</v>
-      </c>
-      <c r="O12">
-        <v>-0.266</v>
-      </c>
-      <c r="P12">
-        <v>-0.023</v>
-      </c>
-      <c r="Q12">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="R12">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-0.48</v>
-      </c>
-      <c r="C13">
-        <v>0.096</v>
-      </c>
-      <c r="D13">
-        <v>0.075</v>
-      </c>
-      <c r="E13">
-        <v>-0.053</v>
-      </c>
-      <c r="F13">
-        <v>0.275</v>
-      </c>
-      <c r="G13">
-        <v>-0.182</v>
-      </c>
-      <c r="H13">
-        <v>0.159</v>
-      </c>
-      <c r="I13">
-        <v>0.161</v>
-      </c>
-      <c r="J13">
-        <v>-0.019</v>
-      </c>
-      <c r="K13">
-        <v>0.039</v>
-      </c>
-      <c r="L13">
-        <v>0.205</v>
-      </c>
-      <c r="M13">
-        <v>-0.587</v>
-      </c>
-      <c r="N13">
-        <v>0.32</v>
-      </c>
-      <c r="O13">
-        <v>0.129</v>
-      </c>
-      <c r="P13">
-        <v>0.157</v>
-      </c>
-      <c r="Q13">
-        <v>-0.242</v>
-      </c>
-      <c r="R13">
-        <v>-0.033</v>
+        <v>-0.153</v>
       </c>
     </row>
   </sheetData>

--- a/03_K_Means_Clustering/Output/CreditCard_00_Results_Summary.xlsx
+++ b/03_K_Means_Clustering/Output/CreditCard_00_Results_Summary.xlsx
@@ -7,19 +7,83 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="1" r:id="rId1"/>
-    <sheet name="VIF" sheetId="2" r:id="rId2"/>
-    <sheet name="PCA_VAR" sheetId="3" r:id="rId3"/>
-    <sheet name="PCA_Components" sheetId="4" r:id="rId4"/>
-    <sheet name="PCA_Top_Features" sheetId="5" r:id="rId5"/>
-    <sheet name="DTR-Features" sheetId="6" r:id="rId6"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="VIF" sheetId="3" r:id="rId3"/>
+    <sheet name="PCA_VAR" sheetId="4" r:id="rId4"/>
+    <sheet name="PCA_Components" sheetId="5" r:id="rId5"/>
+    <sheet name="PCA_Top_Features" sheetId="6" r:id="rId6"/>
+    <sheet name="DTR-Features" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>BALANCE_FREQUENCY</t>
+  </si>
+  <si>
+    <t>PURCHASES</t>
+  </si>
+  <si>
+    <t>ONEOFF_PURCHASES</t>
+  </si>
+  <si>
+    <t>INSTALLMENTS_PURCHASES</t>
+  </si>
+  <si>
+    <t>CASH_ADVANCE</t>
+  </si>
+  <si>
+    <t>PURCHASES_FREQUENCY</t>
+  </si>
+  <si>
+    <t>ONEOFF_PURCHASES_FREQUENCY</t>
+  </si>
+  <si>
+    <t>PURCHASES_INSTALLMENTS_FREQUENCY</t>
+  </si>
+  <si>
+    <t>CASH_ADVANCE_FREQUENCY</t>
+  </si>
+  <si>
+    <t>CASH_ADVANCE_TRX</t>
+  </si>
+  <si>
+    <t>PURCHASES_TRX</t>
+  </si>
+  <si>
+    <t>CREDIT_LIMIT</t>
+  </si>
+  <si>
+    <t>PAYMENTS</t>
+  </si>
+  <si>
+    <t>MINIMUM_PAYMENTS</t>
+  </si>
+  <si>
+    <t>PRC_FULL_PAYMENT</t>
+  </si>
+  <si>
+    <t>TENURE</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
   <si>
     <t>count</t>
   </si>
@@ -43,57 +107,6 @@
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
-  </si>
-  <si>
-    <t>BALANCE_FREQUENCY</t>
-  </si>
-  <si>
-    <t>PURCHASES</t>
-  </si>
-  <si>
-    <t>ONEOFF_PURCHASES</t>
-  </si>
-  <si>
-    <t>INSTALLMENTS_PURCHASES</t>
-  </si>
-  <si>
-    <t>CASH_ADVANCE</t>
-  </si>
-  <si>
-    <t>PURCHASES_FREQUENCY</t>
-  </si>
-  <si>
-    <t>ONEOFF_PURCHASES_FREQUENCY</t>
-  </si>
-  <si>
-    <t>PURCHASES_INSTALLMENTS_FREQUENCY</t>
-  </si>
-  <si>
-    <t>CASH_ADVANCE_FREQUENCY</t>
-  </si>
-  <si>
-    <t>CASH_ADVANCE_TRX</t>
-  </si>
-  <si>
-    <t>PURCHASES_TRX</t>
-  </si>
-  <si>
-    <t>CREDIT_LIMIT</t>
-  </si>
-  <si>
-    <t>PAYMENTS</t>
-  </si>
-  <si>
-    <t>MINIMUM_PAYMENTS</t>
-  </si>
-  <si>
-    <t>PRC_FULL_PAYMENT</t>
-  </si>
-  <si>
-    <t>TENURE</t>
   </si>
   <si>
     <t>Feature</t>
@@ -538,529 +551,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>8950</v>
-      </c>
-      <c r="C2">
-        <v>1564.475</v>
-      </c>
-      <c r="D2">
-        <v>2081.532</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>128.282</v>
-      </c>
-      <c r="G2">
-        <v>873.385</v>
-      </c>
-      <c r="H2">
-        <v>2054.14</v>
-      </c>
-      <c r="I2">
-        <v>19043.139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>8950</v>
-      </c>
-      <c r="C3">
-        <v>0.877</v>
-      </c>
-      <c r="D3">
-        <v>0.237</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.889</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>8950</v>
-      </c>
-      <c r="C4">
-        <v>1003.205</v>
-      </c>
-      <c r="D4">
-        <v>2136.635</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>39.635</v>
-      </c>
-      <c r="G4">
-        <v>361.28</v>
-      </c>
-      <c r="H4">
-        <v>1110.13</v>
-      </c>
-      <c r="I4">
-        <v>49039.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>8950</v>
-      </c>
-      <c r="C5">
-        <v>592.437</v>
-      </c>
-      <c r="D5">
-        <v>1659.888</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>577.405</v>
-      </c>
-      <c r="I5">
-        <v>40761.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>8950</v>
-      </c>
-      <c r="C6">
-        <v>411.068</v>
-      </c>
-      <c r="D6">
-        <v>904.338</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>89</v>
-      </c>
-      <c r="H6">
-        <v>468.637</v>
-      </c>
-      <c r="I6">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>8950</v>
-      </c>
-      <c r="C7">
-        <v>978.871</v>
-      </c>
-      <c r="D7">
-        <v>2097.164</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1113.822</v>
-      </c>
-      <c r="I7">
-        <v>47137.212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>8950</v>
-      </c>
-      <c r="C8">
-        <v>0.49</v>
-      </c>
-      <c r="D8">
-        <v>0.401</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.083</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="H8">
-        <v>0.917</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>8950</v>
-      </c>
-      <c r="C9">
-        <v>0.202</v>
-      </c>
-      <c r="D9">
-        <v>0.298</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.083</v>
-      </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>8950</v>
-      </c>
-      <c r="C10">
-        <v>0.364</v>
-      </c>
-      <c r="D10">
-        <v>0.397</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.167</v>
-      </c>
-      <c r="H10">
-        <v>0.75</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>8950</v>
-      </c>
-      <c r="C11">
-        <v>0.135</v>
-      </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.222</v>
-      </c>
-      <c r="I11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>8950</v>
-      </c>
-      <c r="C12">
-        <v>3.249</v>
-      </c>
-      <c r="D12">
-        <v>6.825</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>8950</v>
-      </c>
-      <c r="C13">
-        <v>14.71</v>
-      </c>
-      <c r="D13">
-        <v>24.858</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>17</v>
-      </c>
-      <c r="I13">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="C18" t="s">
         <v>20</v>
-      </c>
-      <c r="B14">
-        <v>8950</v>
-      </c>
-      <c r="C14">
-        <v>4494.449</v>
-      </c>
-      <c r="D14">
-        <v>3638.612</v>
-      </c>
-      <c r="E14">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>1600</v>
-      </c>
-      <c r="G14">
-        <v>3000</v>
-      </c>
-      <c r="H14">
-        <v>6500</v>
-      </c>
-      <c r="I14">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>8950</v>
-      </c>
-      <c r="C15">
-        <v>1733.144</v>
-      </c>
-      <c r="D15">
-        <v>2895.064</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>383.276</v>
-      </c>
-      <c r="G15">
-        <v>856.902</v>
-      </c>
-      <c r="H15">
-        <v>1901.134</v>
-      </c>
-      <c r="I15">
-        <v>50721.483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>8950</v>
-      </c>
-      <c r="C16">
-        <v>864.207</v>
-      </c>
-      <c r="D16">
-        <v>2330.588</v>
-      </c>
-      <c r="E16">
-        <v>0.019</v>
-      </c>
-      <c r="F16">
-        <v>170.858</v>
-      </c>
-      <c r="G16">
-        <v>335.629</v>
-      </c>
-      <c r="H16">
-        <v>864.207</v>
-      </c>
-      <c r="I16">
-        <v>76406.208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>8950</v>
-      </c>
-      <c r="C17">
-        <v>0.154</v>
-      </c>
-      <c r="D17">
-        <v>0.293</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.143</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>8950</v>
-      </c>
-      <c r="C18">
-        <v>11.517</v>
-      </c>
-      <c r="D18">
-        <v>1.338</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
-      </c>
-      <c r="I18">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1069,6 +758,538 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8950</v>
+      </c>
+      <c r="C2">
+        <v>1564.475</v>
+      </c>
+      <c r="D2">
+        <v>2081.532</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>128.282</v>
+      </c>
+      <c r="G2">
+        <v>873.385</v>
+      </c>
+      <c r="H2">
+        <v>2054.14</v>
+      </c>
+      <c r="I2">
+        <v>19043.139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8950</v>
+      </c>
+      <c r="C3">
+        <v>0.877</v>
+      </c>
+      <c r="D3">
+        <v>0.237</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.889</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8950</v>
+      </c>
+      <c r="C4">
+        <v>1003.205</v>
+      </c>
+      <c r="D4">
+        <v>2136.635</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>39.635</v>
+      </c>
+      <c r="G4">
+        <v>361.28</v>
+      </c>
+      <c r="H4">
+        <v>1110.13</v>
+      </c>
+      <c r="I4">
+        <v>49039.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>8950</v>
+      </c>
+      <c r="C5">
+        <v>592.437</v>
+      </c>
+      <c r="D5">
+        <v>1659.888</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>577.405</v>
+      </c>
+      <c r="I5">
+        <v>40761.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>8950</v>
+      </c>
+      <c r="C6">
+        <v>411.068</v>
+      </c>
+      <c r="D6">
+        <v>904.338</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>89</v>
+      </c>
+      <c r="H6">
+        <v>468.637</v>
+      </c>
+      <c r="I6">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8950</v>
+      </c>
+      <c r="C7">
+        <v>978.871</v>
+      </c>
+      <c r="D7">
+        <v>2097.164</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1113.822</v>
+      </c>
+      <c r="I7">
+        <v>47137.212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8950</v>
+      </c>
+      <c r="C8">
+        <v>0.49</v>
+      </c>
+      <c r="D8">
+        <v>0.401</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.083</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.917</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8950</v>
+      </c>
+      <c r="C9">
+        <v>0.202</v>
+      </c>
+      <c r="D9">
+        <v>0.298</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.083</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8950</v>
+      </c>
+      <c r="C10">
+        <v>0.364</v>
+      </c>
+      <c r="D10">
+        <v>0.397</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.167</v>
+      </c>
+      <c r="H10">
+        <v>0.75</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>8950</v>
+      </c>
+      <c r="C11">
+        <v>0.135</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.222</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8950</v>
+      </c>
+      <c r="C12">
+        <v>3.249</v>
+      </c>
+      <c r="D12">
+        <v>6.825</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>8950</v>
+      </c>
+      <c r="C13">
+        <v>14.71</v>
+      </c>
+      <c r="D13">
+        <v>24.858</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>8950</v>
+      </c>
+      <c r="C14">
+        <v>4494.449</v>
+      </c>
+      <c r="D14">
+        <v>3638.612</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>1600</v>
+      </c>
+      <c r="G14">
+        <v>3000</v>
+      </c>
+      <c r="H14">
+        <v>6500</v>
+      </c>
+      <c r="I14">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>8950</v>
+      </c>
+      <c r="C15">
+        <v>1733.144</v>
+      </c>
+      <c r="D15">
+        <v>2895.064</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>383.276</v>
+      </c>
+      <c r="G15">
+        <v>856.902</v>
+      </c>
+      <c r="H15">
+        <v>1901.134</v>
+      </c>
+      <c r="I15">
+        <v>50721.483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>8950</v>
+      </c>
+      <c r="C16">
+        <v>864.207</v>
+      </c>
+      <c r="D16">
+        <v>2330.588</v>
+      </c>
+      <c r="E16">
+        <v>0.019</v>
+      </c>
+      <c r="F16">
+        <v>170.858</v>
+      </c>
+      <c r="G16">
+        <v>335.629</v>
+      </c>
+      <c r="H16">
+        <v>864.207</v>
+      </c>
+      <c r="I16">
+        <v>76406.208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>8950</v>
+      </c>
+      <c r="C17">
+        <v>0.154</v>
+      </c>
+      <c r="D17">
+        <v>0.293</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.143</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>8950</v>
+      </c>
+      <c r="C18">
+        <v>11.517</v>
+      </c>
+      <c r="D18">
+        <v>1.338</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1078,10 +1299,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1089,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>4.104447849634492</v>
@@ -1100,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>18.12156666331645</v>
@@ -1111,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>58774.11028163067</v>
@@ -1122,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>32777.02181147263</v>
@@ -1133,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>10399.67936346064</v>
@@ -1144,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>3.46055960431869</v>
@@ -1155,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>26.4495732991933</v>
@@ -1166,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>5.712419348864686</v>
@@ -1177,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>17.33091096012746</v>
@@ -1188,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>4.911334019389289</v>
@@ -1199,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>3.879670895618797</v>
@@ -1210,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>4.248334425313535</v>
@@ -1221,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>4.630030395943249</v>
@@ -1232,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>3.59576283906129</v>
@@ -1243,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1.409250373552581</v>
@@ -1254,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1.694977032620431</v>
@@ -1265,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>16.43573743550199</v>
@@ -1276,7 +1497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1350,7 +1571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
@@ -1808,7 +2029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -1818,16 +2039,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1835,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0.412</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1852,16 +2073,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0.439</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1869,16 +2090,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>-0.473</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1886,16 +2107,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0.435</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1903,16 +2124,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>-0.532</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1920,16 +2141,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>-0.747</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1937,16 +2158,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>-0.5590000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1954,16 +2175,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>0.585</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1971,16 +2192,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0.621</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1988,16 +2209,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>-0.466</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2005,16 +2226,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0.448</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2022,16 +2243,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>-0.587</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2039,16 +2260,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>-0.539</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2056,16 +2277,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>-0.611</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2073,16 +2294,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>-0.662</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2090,16 +2311,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>0.678</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2107,16 +2328,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>-0.749</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2124,16 +2345,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0.526</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2141,16 +2362,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>0.444</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2158,16 +2379,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>0.654</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2175,16 +2396,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>0.5600000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2202,13 +2423,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2216,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
